--- a/DOCS/功能清单.xlsx
+++ b/DOCS/功能清单.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,6 +35,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>增删改查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆检修记录管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气罐信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气罐检修记录管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS同步信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS同步日志查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批岗位信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份信息表</t>
+  </si>
+  <si>
+    <t>调度排班表</t>
+  </si>
+  <si>
+    <t>调度审批表</t>
+  </si>
+  <si>
+    <t>对应数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程表</t>
+  </si>
+  <si>
+    <t>流程审批日志表</t>
+  </si>
+  <si>
+    <t>流程节点关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuBigStationInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuCarInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuCarRepair</t>
+  </si>
+  <si>
+    <t>BuCityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuGastankInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuGastankRepair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuGPSInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuGPSLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuProvinceInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuWFProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuWFRelationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuWFRelationshipLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuWorkFlow</t>
+  </si>
+  <si>
+    <t>BuScheduleApply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增删改查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>地址信息维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -40,163 +192,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增删改查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆检修记录管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气罐信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气罐检修记录管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS同步信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删改查，定时同步接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS同步日志查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批岗位信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份信息表</t>
-  </si>
-  <si>
-    <t>调度排班表</t>
-  </si>
-  <si>
-    <t>调度审批表</t>
+    <t>BuStationInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>气站信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应数据库表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程表</t>
-  </si>
-  <si>
-    <t>流程审批日志表</t>
-  </si>
-  <si>
-    <t>流程节点关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuBigStationInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuCarInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuCarRepair</t>
-  </si>
-  <si>
-    <t>BuCityInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuGastankInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuGastankRepair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuGPSInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuGPSLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuPost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuProvinceInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuStationInfo</t>
-  </si>
-  <si>
-    <t>功能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuWFProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuWFRelationship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuWFRelationshipLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询，查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询，查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuWorkFlow</t>
-  </si>
-  <si>
-    <t>BuScheduleApply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuSchedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删改查</t>
+    <t>类型表是否可以用框架里面的字典表代替？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宗婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS信息定时同步接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台服务或者sqljob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张益林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张益林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宗婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务数据，待商定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,15 +322,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -583,20 +650,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
@@ -604,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -619,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -627,302 +695,430 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DOCS/功能清单.xlsx
+++ b/DOCS/功能清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,15 +240,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李亚楠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>业务数据，待商定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易丙军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式调整也由易丙军负责</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +280,7 @@
       <sz val="12"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -337,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -346,6 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -650,24 +656,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -704,16 +710,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -727,16 +733,16 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -750,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -779,10 +785,10 @@
         <v>1.5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -802,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -819,16 +825,16 @@
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -842,16 +848,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -871,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -894,10 +900,10 @@
         <v>1.5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -914,13 +920,13 @@
         <v>55</v>
       </c>
       <c r="F11" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -937,13 +943,13 @@
         <v>56</v>
       </c>
       <c r="F12" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -960,13 +966,13 @@
         <v>56</v>
       </c>
       <c r="F13" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -980,16 +986,16 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1009,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1026,16 +1032,16 @@
         <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1049,16 +1055,16 @@
         <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1072,10 +1078,10 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1089,10 +1095,10 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1106,15 +1112,20 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
